--- a/recognitionalgorithm/字典.xlsx
+++ b/recognitionalgorithm/字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jupyter\car-management\recognitionalgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C8929443-61B2-40DA-A8A0-429757E80905}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4293D1EC-6FEA-4094-A040-5650809B72B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{8E02A67C-09BF-408D-900D-C8A4488B05D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>冀</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>chs</t>
+  </si>
+  <si>
+    <t>津</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,349 +577,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F59D22E-91AE-4538-9B0C-C250C6F1A39A}">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
+      <c r="A32" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>40</v>
+      <c r="A51" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A41" r:id="rId1" display="https://baike.baidu.com/item/A" xr:uid="{0CD5910C-2A23-4B50-AB00-739045DD11E1}"/>
-    <hyperlink ref="A42" r:id="rId2" display="https://baike.baidu.com/item/B" xr:uid="{7C47906A-B0C5-4B18-BBE3-5FD97EAAC0E8}"/>
-    <hyperlink ref="A44" r:id="rId3" display="https://baike.baidu.com/item/D" xr:uid="{1B8CD5A3-5B54-47A3-A8F8-FDE12E6CB83C}"/>
-    <hyperlink ref="A46" r:id="rId4" display="https://baike.baidu.com/item/F" xr:uid="{4DBD53DB-2EA4-4F33-83EE-9B2E0AF6B368}"/>
-    <hyperlink ref="A49" r:id="rId5" display="https://baike.baidu.com/item/I" xr:uid="{B354232F-3D2C-447B-A047-A5CC400BA3DD}"/>
-    <hyperlink ref="A57" r:id="rId6" display="https://baike.baidu.com/item/R" xr:uid="{2DD316F5-3289-43BF-A15C-BCCAC7E70E88}"/>
-    <hyperlink ref="A58" r:id="rId7" display="https://baike.baidu.com/item/S" xr:uid="{61D0B882-858A-495D-9770-29145A89AC35}"/>
-    <hyperlink ref="A59" r:id="rId8" display="https://baike.baidu.com/item/T" xr:uid="{822B8B43-6F0C-4C56-9883-099DE082F0B1}"/>
+    <hyperlink ref="A43" r:id="rId1" display="https://baike.baidu.com/item/A" xr:uid="{0CD5910C-2A23-4B50-AB00-739045DD11E1}"/>
+    <hyperlink ref="A44" r:id="rId2" display="https://baike.baidu.com/item/B" xr:uid="{7C47906A-B0C5-4B18-BBE3-5FD97EAAC0E8}"/>
+    <hyperlink ref="A46" r:id="rId3" display="https://baike.baidu.com/item/D" xr:uid="{1B8CD5A3-5B54-47A3-A8F8-FDE12E6CB83C}"/>
+    <hyperlink ref="A48" r:id="rId4" display="https://baike.baidu.com/item/F" xr:uid="{4DBD53DB-2EA4-4F33-83EE-9B2E0AF6B368}"/>
+    <hyperlink ref="A51" r:id="rId5" display="https://baike.baidu.com/item/I" xr:uid="{B354232F-3D2C-447B-A047-A5CC400BA3DD}"/>
+    <hyperlink ref="A59" r:id="rId6" display="https://baike.baidu.com/item/R" xr:uid="{2DD316F5-3289-43BF-A15C-BCCAC7E70E88}"/>
+    <hyperlink ref="A60" r:id="rId7" display="https://baike.baidu.com/item/S" xr:uid="{61D0B882-858A-495D-9770-29145A89AC35}"/>
+    <hyperlink ref="A61" r:id="rId8" display="https://baike.baidu.com/item/T" xr:uid="{822B8B43-6F0C-4C56-9883-099DE082F0B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
